--- a/Docs/Testing_Result_Home Page.xlsx
+++ b/Docs/Testing_Result_Home Page.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Test Case No.</t>
   </si>
@@ -41,7 +44,7 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Actual Result</t>
+    <t xml:space="preserve">    Actual Result</t>
   </si>
   <si>
     <t>Developer Comment</t>
@@ -50,34 +53,52 @@
     <t>HP_001</t>
   </si>
   <si>
-    <t>Verify the navigation to the Home page.</t>
-  </si>
-  <si>
-    <t>1. Click on the "Home" link in the navigation menu.</t>
-  </si>
-  <si>
-    <t>User should be navigated to the Home page.</t>
-  </si>
-  <si>
-    <t>User is  navigated to the Home page.</t>
-  </si>
-  <si>
-    <t>HP_002</t>
-  </si>
-  <si>
     <t>Verify the content of the Home page.</t>
   </si>
   <si>
     <t>1. Check for the presence of the main header.</t>
   </si>
   <si>
+    <t xml:space="preserve">All the specified elements should be present and correctly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    All the specified elements are present correctly</t>
+  </si>
+  <si>
     <t>2. Verify the welcome message is displayed.</t>
   </si>
   <si>
-    <t xml:space="preserve">All the specified elements should be present and correctly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All the specified elements are present correctly </t>
+    <t>and displayed.</t>
+  </si>
+  <si>
+    <t>3. Ensure the Home page contains the latest updates section.</t>
+  </si>
+  <si>
+    <t>LS_001</t>
+  </si>
+  <si>
+    <t>Verify the Language Selection option.</t>
+  </si>
+  <si>
+    <t>1. Check for the Drop Down Menu at the Center of Main Header.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the Home page content should be translated to </t>
+  </si>
+  <si>
+    <t>All the Home Page Content is translated to</t>
+  </si>
+  <si>
+    <t>2. Select any Language option from Drop Down Menu.</t>
+  </si>
+  <si>
+    <t>Selected Language from Drop Down Menu</t>
+  </si>
+  <si>
+    <t>Selected Language.</t>
+  </si>
+  <si>
+    <t>3. Ensure the Home page content translated to Selected Language.</t>
   </si>
   <si>
     <t>AU_001</t>
@@ -86,15 +107,15 @@
     <t>Verify the navigation to the About Us page.</t>
   </si>
   <si>
-    <t>3. Ensure the Home page contains the latest updates section.</t>
-  </si>
-  <si>
     <t>1. Click on the "About Us" link in the navigation menu.</t>
   </si>
   <si>
     <t>User should be navigated to the About Us page.</t>
   </si>
   <si>
+    <t>About us page is under development .</t>
+  </si>
+  <si>
     <t>AU_002</t>
   </si>
   <si>
@@ -104,21 +125,21 @@
     <t>1. Check for the presence of the company mission statement.</t>
   </si>
   <si>
+    <t>All the specified elements should be present and correctly and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   About us page is under development.</t>
+  </si>
+  <si>
     <t>2. Verify the team member section is displayed.</t>
   </si>
   <si>
+    <t>displayed.</t>
+  </si>
+  <si>
     <t>3. Ensure the history of the company is detailed.</t>
   </si>
   <si>
-    <t>All the specified elements should be present and correctly and</t>
-  </si>
-  <si>
-    <t>displayed.</t>
-  </si>
-  <si>
-    <t>and displayed.</t>
-  </si>
-  <si>
     <t>CU_001</t>
   </si>
   <si>
@@ -131,6 +152,9 @@
     <t>User should be navigated to the Contact Us page.</t>
   </si>
   <si>
+    <t xml:space="preserve">   Contact us page is under development.</t>
+  </si>
+  <si>
     <t>CU_002</t>
   </si>
   <si>
@@ -155,18 +179,15 @@
     <t>1. Fill in the contact form with valid data.</t>
   </si>
   <si>
+    <t xml:space="preserve">A success message should be displayed indicating </t>
+  </si>
+  <si>
     <t>2.Click the submit button.</t>
   </si>
   <si>
-    <t xml:space="preserve">A success message should be displayed indicating </t>
-  </si>
-  <si>
     <t>the form was submitted successfully.</t>
   </si>
   <si>
-    <t>Contact page is  underdevelopment.</t>
-  </si>
-  <si>
     <t>GS_001</t>
   </si>
   <si>
@@ -191,79 +212,434 @@
     <t>1. Check for the presence of an introductory guide.</t>
   </si>
   <si>
+    <t xml:space="preserve">Main Header conteent of Get Started page is not </t>
+  </si>
+  <si>
     <t>2. Verify that steps to get started are clearly outlined.</t>
   </si>
   <si>
+    <t xml:space="preserve">   matching with the Home page header</t>
+  </si>
+  <si>
     <t>3.Ensure that any necessary links or resources are available.</t>
   </si>
   <si>
-    <t>All the specified elements are present and correctly</t>
-  </si>
-  <si>
     <t>GS_003</t>
   </si>
   <si>
     <t>Verify the functionality of the Get Started</t>
   </si>
   <si>
+    <t>1. Follow the steps outlined on the page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each step should be clear and functional, and all resources </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each step is clear and functional, </t>
+  </si>
+  <si>
     <t>process.</t>
   </si>
   <si>
-    <t>1. Follow the steps outlined on the page.</t>
-  </si>
-  <si>
     <t>2. Attempt to access all resources or links provided.</t>
   </si>
   <si>
-    <t xml:space="preserve">Each step should be clear and functional, and all resources </t>
-  </si>
-  <si>
     <t>or links should be accessible.</t>
   </si>
   <si>
-    <t>About us page is under development .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abut us page is under development. </t>
-  </si>
-  <si>
-    <t>Contact us page is under development.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each step is clear and functional, </t>
-  </si>
-  <si>
-    <t>and all resources or links is accessible.</t>
+    <t xml:space="preserve">   and all resources or links is accessible.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -271,34 +647,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -347,7 +1018,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,7 +1053,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,332 +1227,374 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="16" max="16" width="11.21875" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.2222222222222" customWidth="1"/>
+    <col min="23" max="23" width="3.96296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="15.6" spans="1:30">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" ht="15.6" spans="3:24">
+      <c r="C2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="Q2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:24">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" ht="15.6" spans="10:17">
+      <c r="J5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="10:10">
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="10:10">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" ht="15.6" spans="10:10">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" ht="15.6" spans="3:24">
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="3:24">
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="J10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="3:24">
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="J11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" ht="15.6" spans="3:24">
+      <c r="C12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="J12" s="4"/>
+      <c r="Q12" s="6"/>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" ht="15.6" spans="3:24">
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="J13" s="4"/>
+      <c r="Q13" s="6"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" ht="15.6" spans="1:24">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:24">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X8" s="4" t="s">
+      <c r="J16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="10:17">
+      <c r="J17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="10:10">
+      <c r="J18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:24">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:24">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="10:17">
+      <c r="J23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="10:10">
+      <c r="J24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:24">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="10:17">
+      <c r="J27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:24">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:24">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X31" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="10:24">
+      <c r="J32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="10:10">
+      <c r="J33" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" ht="15.6" spans="1:24">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="J35" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X25" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J27" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X29" s="4" t="s">
+      <c r="Q35" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X30" s="3" t="s">
+      <c r="X35" s="7" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="5:24">
+      <c r="E36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Docs/Testing_Result_Home Page.xlsx
+++ b/Docs/Testing_Result_Home Page.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Test Case No.</t>
   </si>
@@ -53,6 +53,21 @@
     <t>HP_001</t>
   </si>
   <si>
+    <t>Verify the navigation to the Home page.</t>
+  </si>
+  <si>
+    <t>1. Click on the "Home" link in the navigation menu.</t>
+  </si>
+  <si>
+    <t>User should be navigated to the Home page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   User is  navigated to the Home page.</t>
+  </si>
+  <si>
+    <t>HP_002</t>
+  </si>
+  <si>
     <t>Verify the content of the Home page.</t>
   </si>
   <si>
@@ -101,124 +116,37 @@
     <t>3. Ensure the Home page content translated to Selected Language.</t>
   </si>
   <si>
-    <t>AU_001</t>
-  </si>
-  <si>
-    <t>Verify the navigation to the About Us page.</t>
-  </si>
-  <si>
-    <t>1. Click on the "About Us" link in the navigation menu.</t>
-  </si>
-  <si>
-    <t>User should be navigated to the About Us page.</t>
-  </si>
-  <si>
-    <t>About us page is under development .</t>
-  </si>
-  <si>
-    <t>AU_002</t>
-  </si>
-  <si>
-    <t>Verify the content of the About Us page.</t>
-  </si>
-  <si>
-    <t>1. Check for the presence of the company mission statement.</t>
-  </si>
-  <si>
-    <t>All the specified elements should be present and correctly and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   About us page is under development.</t>
-  </si>
-  <si>
-    <t>2. Verify the team member section is displayed.</t>
+    <t>GS_001</t>
+  </si>
+  <si>
+    <t>Verify the navigation to the Get Started page.</t>
+  </si>
+  <si>
+    <t>1. Click on the "Get Started" link in the navigation menu.</t>
+  </si>
+  <si>
+    <t>User should be navigated to the Get Started page.</t>
+  </si>
+  <si>
+    <t>User is  navigated to the Get Started page.</t>
+  </si>
+  <si>
+    <t>GS_002</t>
+  </si>
+  <si>
+    <t>Verify the content of the Get Started page.</t>
+  </si>
+  <si>
+    <t>1. Check for the presence of an introductory guide.</t>
+  </si>
+  <si>
+    <t>2. Verify that steps to get started are clearly outlined.</t>
   </si>
   <si>
     <t>displayed.</t>
   </si>
   <si>
-    <t>3. Ensure the history of the company is detailed.</t>
-  </si>
-  <si>
-    <t>CU_001</t>
-  </si>
-  <si>
-    <t>Verify the navigation to the Contact Us page.</t>
-  </si>
-  <si>
-    <t>1. Click on the "Contact Us" link in the navigation menu.</t>
-  </si>
-  <si>
-    <t>User should be navigated to the Contact Us page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Contact us page is under development.</t>
-  </si>
-  <si>
-    <t>CU_002</t>
-  </si>
-  <si>
-    <t>Verify the content of the Contact Us page.</t>
-  </si>
-  <si>
-    <t>1. Check for the presence of the contact form.</t>
-  </si>
-  <si>
-    <t>2. Verify the company address and phone number are displayed.</t>
-  </si>
-  <si>
-    <t>3. Ensure the map showing the company location is present.</t>
-  </si>
-  <si>
-    <t>CU_003</t>
-  </si>
-  <si>
-    <t>Verify the functionality of the contact form</t>
-  </si>
-  <si>
-    <t>1. Fill in the contact form with valid data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A success message should be displayed indicating </t>
-  </si>
-  <si>
-    <t>2.Click the submit button.</t>
-  </si>
-  <si>
-    <t>the form was submitted successfully.</t>
-  </si>
-  <si>
-    <t>GS_001</t>
-  </si>
-  <si>
-    <t>Verify the navigation to the Get Started page.</t>
-  </si>
-  <si>
-    <t>1. Click on the "Get Started" link in the navigation menu.</t>
-  </si>
-  <si>
-    <t>User should be navigated to the Get Started page.</t>
-  </si>
-  <si>
-    <t>User is  navigated to the Get Started page.</t>
-  </si>
-  <si>
-    <t>GS_002</t>
-  </si>
-  <si>
-    <t>Verify the content of the Get Started page.</t>
-  </si>
-  <si>
-    <t>1. Check for the presence of an introductory guide.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Header conteent of Get Started page is not </t>
-  </si>
-  <si>
-    <t>2. Verify that steps to get started are clearly outlined.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   matching with the Home page header</t>
+    <t xml:space="preserve">   displayed.</t>
   </si>
   <si>
     <t>3.Ensure that any necessary links or resources are available.</t>
@@ -261,7 +189,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,28 +205,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -748,19 +657,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,151 +690,134 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1233,16 +1137,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="16" max="16" width="11.2222222222222" customWidth="1"/>
     <col min="23" max="23" width="3.96296296296296" customWidth="1"/>
+    <col min="28" max="28" width="19.6759259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:30">
@@ -1268,328 +1173,203 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="3:24">
-      <c r="C2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="Q2" s="1"/>
-      <c r="X2" s="1"/>
+    <row r="2" ht="15.6" spans="1:24">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" ht="15.6" spans="1:24">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="10:17">
-      <c r="J5" s="4" t="s">
-        <v>12</v>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="10:10">
-      <c r="J6" s="4" t="s">
-        <v>14</v>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="10:10">
-      <c r="J7" s="4"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" ht="15.6" spans="10:10">
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" ht="15.6" spans="3:24">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:24">
+      <c r="A9">
+        <v>3</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="3:24">
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="J10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>22</v>
+      <c r="J10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="3:24">
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="J11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="6"/>
-      <c r="X11" s="6"/>
+      <c r="J11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="X11" s="5"/>
     </row>
     <row r="12" ht="15.6" spans="3:24">
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="J12" s="4"/>
-      <c r="Q12" s="6"/>
-      <c r="X12" s="6"/>
-    </row>
-    <row r="13" ht="15.6" spans="3:24">
-      <c r="C13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="J13" s="4"/>
-      <c r="Q13" s="6"/>
-      <c r="X13" s="6"/>
+      <c r="J12" s="3"/>
+      <c r="Q12" s="5"/>
+      <c r="X12" s="5"/>
     </row>
     <row r="14" ht="15.6" spans="1:24">
       <c r="A14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="X14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:24">
       <c r="A16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" ht="15.6" spans="10:17">
-      <c r="J17" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="10:24">
+      <c r="J17" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="10:10">
-      <c r="J18" s="4" t="s">
-        <v>36</v>
+      <c r="J18" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:24">
       <c r="A20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X20" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" ht="15.6" spans="1:24">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="Q20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" ht="15.6" spans="10:17">
-      <c r="J23" s="4" t="s">
+      <c r="X20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" ht="15.6" spans="10:10">
-      <c r="J24" s="4" t="s">
+    </row>
+    <row r="21" ht="15.6" spans="5:24">
+      <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" ht="15.6" spans="1:24">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="J21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="X21" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" ht="15.6" spans="10:17">
-      <c r="J27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:24">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X29" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" ht="15.6" spans="1:24">
-      <c r="A31">
-        <v>8</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X31" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" ht="15.6" spans="10:24">
-      <c r="J32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X32" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" ht="15.6" spans="10:10">
-      <c r="J33" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" ht="15.6" spans="1:24">
-      <c r="A35">
-        <v>9</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X35" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" ht="15.6" spans="5:24">
-      <c r="E36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X36" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
